--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -46,25 +46,25 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>scary</t>
   </si>
   <si>
     <t>fuck</t>
@@ -73,16 +73,19 @@
     <t>shit</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>false</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
@@ -100,61 +103,58 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>’</t>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>48</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,31 +705,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5">
-        <v>0.88</v>
-      </c>
-      <c r="L5">
-        <v>44</v>
-      </c>
-      <c r="M5">
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.7586206896551724</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.72</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,16 +958,16 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5925925925925926</v>
+        <v>0.64</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +987,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.6014492753623188</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.4166666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1037,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.3888888888888889</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,49 +1087,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.574468085106383</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>0.4375</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>27</v>
-      </c>
-      <c r="D13">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.572463768115942</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.2513661202185792</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L14">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>822</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,16 +1208,16 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.2203389830508475</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,13 +1237,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5142857142857142</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.1473684210526316</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1287,13 +1287,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4642857142857143</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.1411764705882353</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1337,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4102564102564102</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.04105571847507331</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1387,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1405,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.04074074074074074</v>
+        <v>0.03313253012048193</v>
       </c>
       <c r="L19">
         <v>22</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>518</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,63 +1437,87 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05369127516778523</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>66</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.02534562211981567</v>
+      </c>
+      <c r="L20">
+        <v>44</v>
+      </c>
+      <c r="M20">
+        <v>44</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.04713804713804714</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
         <v>16</v>
       </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0.06</v>
-      </c>
-      <c r="F20">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>282</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.03313253012048193</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="E21">
+        <v>0.12</v>
+      </c>
+      <c r="F21">
+        <v>0.88</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>283</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.03246753246753246</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1505,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.0293778801843318</v>
+        <v>0.0204865556978233</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1531,33 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.02176696542893726</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
